--- a/src/test/resources/test_data/BookingTest/BookingFlow_Test.xlsx
+++ b/src/test/resources/test_data/BookingTest/BookingFlow_Test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MobileNumber</t>
   </si>
@@ -50,6 +51,18 @@
   </si>
   <si>
     <t>8447245678</t>
+  </si>
+  <si>
+    <t>AdminUsername</t>
+  </si>
+  <si>
+    <t>AdminPassword</t>
+  </si>
+  <si>
+    <t>Varunbhayana</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -437,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +464,12 @@
     <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +488,14 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -492,6 +513,12 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_data/BookingTest/BookingFlow_Test.xlsx
+++ b/src/test/resources/test_data/BookingTest/BookingFlow_Test.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MobileNumber</t>
   </si>
@@ -47,9 +46,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>15-12-2018</t>
-  </si>
-  <si>
     <t>8447245678</t>
   </si>
   <si>
@@ -63,6 +59,15 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>checkInMonth</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -450,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,15 +466,16 @@
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,24 +486,27 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -506,19 +515,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
